--- a/biology/Botanique/Heliamphora_chimantensis/Heliamphora_chimantensis.xlsx
+++ b/biology/Botanique/Heliamphora_chimantensis/Heliamphora_chimantensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Heliamphora chimantensis est une espèce de plantes à fleurs du genre Heliamphora et de la famille des Sarraceniaceae. C'est une plante carnivore endémique du tepuy Chimanta au Venezuela.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">De façon assez surprenante, plusieurs caractéristiques morphologiques indiquent une proximité plus grande entre Heliamphora chimantensis et les espèces Heliamphora tatei et Heliamphora neblinae qui poussent en des lieux plus lointains ; alors que de nombreuses espèces sont beaucoup plus proches géographiquement.
 Dans la nature, ces plantes forment des colonies très denses, qui se retrouvent généralement dans des lieux dégagés autour de 2 000 m d'altitude.
@@ -545,7 +559,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Heliamphora chimantensis fut découverte lors d'une expédition sur le Chimanta menée par les Allemands A. Wistuba, T. Carrow et P. Harbarth.
 </t>
